--- a/geodir-ubigeo-inei.xlsx
+++ b/geodir-ubigeo-inei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidemi Kiyan\Desktop\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51EEF0D3-9B18-452A-99AB-7D059E10744A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{190F180E-8D37-458B-BBCA-896B5FAC442F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1315F33-F4C0-4336-ADCE-7DD268B96EDD}"/>
   </bookViews>
